--- a/demo/demo_dataloader.xlsx
+++ b/demo/demo_dataloader.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijiali/Desktop/2D writing/最终版本/Manuscript - Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijiali/Desktop/Automatic_Strain_Sensor_Design-main/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA24E81-83B0-BE4F-A116-646A75DC3B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCF04D-4FED-FA47-8C3B-C8EE1726EA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7840" yWindow="500" windowWidth="27440" windowHeight="16440" activeTab="1" xr2:uid="{F4235347-0BB9-7B44-9807-CCC8CEC99AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cutoff" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="features" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cutoff!$A$2:$A$2</definedName>
